--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/10/seed2/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.2734</v>
+        <v>-11.3796</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.42290000000001</v>
+        <v>-12.62680000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.4972</v>
+        <v>-12.3379</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -859,7 +859,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.97359999999999</v>
+        <v>-13.3261</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -1335,7 +1335,7 @@
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.36890000000001</v>
+        <v>-10.50860000000001</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.91399999999999</v>
+        <v>-13.90739999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.83319999999999</v>
+        <v>-12.9065</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.6332</v>
+        <v>-11.90390000000001</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-10.72830000000001</v>
+        <v>-10.31870000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.5538</v>
+        <v>-13.65569999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.1843</v>
+        <v>-11.0334</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
